--- a/Hardware/New_BOM.xlsx
+++ b/Hardware/New_BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="178">
   <si>
     <t>Comment</t>
   </si>
@@ -47,24 +47,9 @@
     <t>Supplier Part Number 1</t>
   </si>
   <si>
-    <t>SparkFun Test Points</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>15, TP19, TP20, TP21, TP23</t>
-  </si>
-  <si>
-    <t>PAD.02X.02</t>
-  </si>
-  <si>
-    <t>TEST-POINT2</t>
-  </si>
-  <si>
-    <t>36-5019CT-ND, 36-5019DKR-ND, 36-5019CT-ND, 36-5019CT-ND, 36-5019DKR-ND</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -80,36 +65,24 @@
     <t>Cap Semi</t>
   </si>
   <si>
-    <t>1276-1948-1-ND, 1276-1948-6-ND, 1276-1948-6-ND</t>
-  </si>
-  <si>
     <t>10nF</t>
   </si>
   <si>
     <t>C2, C3</t>
   </si>
   <si>
-    <t>311-1085-1-ND, 311-1085-6-ND</t>
-  </si>
-  <si>
     <t>0.1uF</t>
   </si>
   <si>
     <t>C5, C10, C15, C19, C20, C25</t>
   </si>
   <si>
-    <t>311-1088-6-ND, 311-1088-6-ND, 311-1088-1-ND, 311-1088-1-ND, 311-1088-6-ND, 311-1088-6-ND</t>
-  </si>
-  <si>
     <t>47uF</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>478-11180-2-ND</t>
-  </si>
-  <si>
     <t>100uF</t>
   </si>
   <si>
@@ -134,9 +107,6 @@
     <t>C8, C11, C16, C21</t>
   </si>
   <si>
-    <t>1276-1946-6-ND, 1276-1946-6-ND, 1276-1946-1-ND, 1276-1946-6-ND</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
@@ -170,9 +140,6 @@
     <t>C18, C23</t>
   </si>
   <si>
-    <t>587-2983-6-ND</t>
-  </si>
-  <si>
     <t>MBRS140</t>
   </si>
   <si>
@@ -182,9 +149,6 @@
     <t>DO-214AC</t>
   </si>
   <si>
-    <t>MBRS140T3GOSDKR-ND</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -200,21 +164,6 @@
     <t>TLMO1100-GS08</t>
   </si>
   <si>
-    <t>751-1174-6-ND</t>
-  </si>
-  <si>
-    <t>Power Jack</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>POWER_JACK_SMD</t>
-  </si>
-  <si>
-    <t>POWER_JACKSMD</t>
-  </si>
-  <si>
     <t>10uH</t>
   </si>
   <si>
@@ -239,66 +188,12 @@
     <t>B2B-PH-SM4-TB</t>
   </si>
   <si>
-    <t>Header, 6-Pin</t>
-  </si>
-  <si>
     <t>HDR1X6</t>
   </si>
   <si>
-    <t>Header 6</t>
-  </si>
-  <si>
     <t>732-5327-ND</t>
   </si>
   <si>
-    <t>Header, 3-Pin</t>
-  </si>
-  <si>
-    <t>P2, P3</t>
-  </si>
-  <si>
-    <t>HDR1X3</t>
-  </si>
-  <si>
-    <t>Header 3</t>
-  </si>
-  <si>
-    <t>Header, 5-Pin</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>HDR1X5</t>
-  </si>
-  <si>
-    <t>Header 5</t>
-  </si>
-  <si>
-    <t>Header, 7-Pin</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>HDR1X7</t>
-  </si>
-  <si>
-    <t>Header 7</t>
-  </si>
-  <si>
-    <t>Header, 2-Pin</t>
-  </si>
-  <si>
-    <t>P8, P9, P10, P11, P12</t>
-  </si>
-  <si>
-    <t>HDR1X2</t>
-  </si>
-  <si>
-    <t>Header 2</t>
-  </si>
-  <si>
     <t>1K</t>
   </si>
   <si>
@@ -314,12 +209,6 @@
     <t>Res3</t>
   </si>
   <si>
-    <t>311-0.0GRDKR-ND, 311-1.0KGRCT-ND</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.2K</t>
   </si>
   <si>
@@ -350,18 +239,9 @@
     <t>R11</t>
   </si>
   <si>
-    <t>311-1.00MHRDKR-ND</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>R12</t>
   </si>
   <si>
-    <t>311-1.00HRDKR-ND</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
@@ -398,9 +278,6 @@
     <t>5019</t>
   </si>
   <si>
-    <t>36-5019DKR-ND, 36-5019DKR-ND, 36-5019CT-ND, 36-5019CT-ND, 36-5019CT-ND, 36-5019DKR-ND, 36-5019DKR-ND, 36-5019DKR-ND, 36-5019CT-ND, 36-5019DKR-ND, 36-5019CT-ND</t>
-  </si>
-  <si>
     <t>uCamIII_HEADER</t>
   </si>
   <si>
@@ -413,9 +290,6 @@
     <t>uCamIII_Header</t>
   </si>
   <si>
-    <t>1613-1369-ND</t>
-  </si>
-  <si>
     <t>Pearl Gecko</t>
   </si>
   <si>
@@ -479,18 +353,6 @@
     <t>102-1721-ND</t>
   </si>
   <si>
-    <t>Motion Sensor</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>AMN24112</t>
-  </si>
-  <si>
-    <t>255-1818-ND</t>
-  </si>
-  <si>
     <t>LTC3106</t>
   </si>
   <si>
@@ -545,9 +407,6 @@
     <t>LT1300CS8#PBF-ND</t>
   </si>
   <si>
-    <t>uCamIII</t>
-  </si>
-  <si>
     <t>HF Oscillator</t>
   </si>
   <si>
@@ -578,9 +437,6 @@
     <t>ECS-.327-12.5-34B-TR</t>
   </si>
   <si>
-    <t>520-ECS-327-12.5-34B</t>
-  </si>
-  <si>
     <t>Battery Connector</t>
   </si>
   <si>
@@ -596,10 +452,112 @@
     <t>R1, R9, R10</t>
   </si>
   <si>
-    <t>311-0.0GRDKR-ND, 311-0.0GRDKR-ND, 311-0.0GRDKR-ND</t>
-  </si>
-  <si>
-    <t>P1, P5</t>
+    <t>36-5019CT-ND</t>
+  </si>
+  <si>
+    <t>0 ohm</t>
+  </si>
+  <si>
+    <t>1 ohm</t>
+  </si>
+  <si>
+    <t>P1, P5, P2, P3, P6, P7, P8, P9, P10, P11, P12</t>
+  </si>
+  <si>
+    <t>Header 16 Pin</t>
+  </si>
+  <si>
+    <t>16 Male Header</t>
+  </si>
+  <si>
+    <t>EG4621CT-ND</t>
+  </si>
+  <si>
+    <t>311-2.20KHRCT-ND</t>
+  </si>
+  <si>
+    <t>Header, 16-Pin</t>
+  </si>
+  <si>
+    <t>Shorting Connectors</t>
+  </si>
+  <si>
+    <t>Screws</t>
+  </si>
+  <si>
+    <t>Jumper Wires</t>
+  </si>
+  <si>
+    <t>S9337-ND</t>
+  </si>
+  <si>
+    <t>36-29300-ND</t>
+  </si>
+  <si>
+    <t>AE10868-ND</t>
+  </si>
+  <si>
+    <t>Spacers</t>
+  </si>
+  <si>
+    <t>1568-1511-ND</t>
+  </si>
+  <si>
+    <t>1276-1948-1-ND</t>
+  </si>
+  <si>
+    <t>311-1085-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1946-1-ND</t>
+  </si>
+  <si>
+    <t>MBRS140T3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>455-1734-1-ND</t>
+  </si>
+  <si>
+    <t>478-11180-1-ND</t>
+  </si>
+  <si>
+    <t>751-1174-1-ND</t>
+  </si>
+  <si>
+    <t>587-2983-1-ND</t>
+  </si>
+  <si>
+    <t>311-1.0KGRCT-ND</t>
+  </si>
+  <si>
+    <t>311-0.0GRCT-ND</t>
+  </si>
+  <si>
+    <t>311-1.00MHRCT-ND</t>
+  </si>
+  <si>
+    <t>311-1.00HRCT-ND</t>
+  </si>
+  <si>
+    <t>1568-1512-ND</t>
+  </si>
+  <si>
+    <t>1568-1513-ND</t>
+  </si>
+  <si>
+    <t>M-M</t>
+  </si>
+  <si>
+    <t>M-F</t>
+  </si>
+  <si>
+    <t>F-F</t>
+  </si>
+  <si>
+    <t>XC1617CT-ND</t>
+  </si>
+  <si>
+    <t>S7038-ND</t>
   </si>
 </sst>
 </file>
@@ -994,17 +952,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -1036,25 +994,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1062,1060 +1020,957 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F26" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F28" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F33" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>139</v>
+        <v>3</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F37" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>165</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="F44" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" tooltip="Supplier" display="'36-5019CT-ND, 36-5019DKR-ND, 36-5019CT-ND, 36-5019CT-ND, 36-5019DKR-ND"/>
-    <hyperlink ref="G3" tooltip="Supplier" display="'1276-1948-1-ND, 1276-1948-6-ND, 1276-1948-6-ND"/>
-    <hyperlink ref="G4" tooltip="Supplier" display="'311-1085-1-ND, 311-1085-6-ND"/>
-    <hyperlink ref="G5" tooltip="Supplier" display="'311-1088-6-ND, 311-1088-6-ND, 311-1088-1-ND, 311-1088-1-ND, 311-1088-6-ND, 311-1088-6-ND"/>
-    <hyperlink ref="G6" tooltip="Supplier" display="'478-11180-2-ND"/>
-    <hyperlink ref="G7" tooltip="Supplier" display="'4437PHCT-ND"/>
-    <hyperlink ref="G8" tooltip="Supplier" display="'1276-1946-6-ND, 1276-1946-6-ND, 1276-1946-1-ND, 1276-1946-6-ND"/>
-    <hyperlink ref="G9" tooltip="Supplier" display="'311-1088-1-ND"/>
-    <hyperlink ref="G10" tooltip="Supplier" display="'399-7824-1-ND"/>
-    <hyperlink ref="G11" tooltip="Supplier" display="'490-3295-1-ND"/>
-    <hyperlink ref="G12" tooltip="Supplier" display="'587-2983-6-ND"/>
-    <hyperlink ref="G13" tooltip="Supplier" display="'MBRS140T3GOSDKR-ND"/>
-    <hyperlink ref="G14" tooltip="Supplier" display="'751-1174-6-ND"/>
-    <hyperlink ref="G15" tooltip="Supplier" display="'"/>
-    <hyperlink ref="G16" tooltip="Supplier" display="'732-1025-1-ND"/>
-    <hyperlink ref="G17" tooltip="Supplier" display="'"/>
-    <hyperlink ref="G18" tooltip="Supplier" display="'732-5327-ND"/>
-    <hyperlink ref="G19" tooltip="Supplier" display="'"/>
-    <hyperlink ref="G20" tooltip="Supplier" display="'"/>
-    <hyperlink ref="G21" tooltip="Supplier" display="'732-5327-ND"/>
-    <hyperlink ref="G22" tooltip="Supplier" display="'732-5327-ND"/>
-    <hyperlink ref="G23" tooltip="Supplier" display="'311-0.0GRDKR-ND, 311-1.0KGRCT-ND"/>
-    <hyperlink ref="G24" tooltip="Supplier" display="'311-0.0GRDKR-ND, 732-4484-6-ND, 732-4484-6-ND, 311-0.0GRDKR-ND, 311-0.0GRDKR-ND"/>
-    <hyperlink ref="G25" tooltip="Supplier" display="'"/>
-    <hyperlink ref="G26" tooltip="Supplier" display="'311-1088-1-ND"/>
-    <hyperlink ref="G27" tooltip="Supplier" display="'311-100KHRCT-ND"/>
-    <hyperlink ref="G28" tooltip="Supplier" display="'732-4484-1-ND"/>
-    <hyperlink ref="G29" tooltip="Supplier" display="'311-1.00MHRDKR-ND"/>
-    <hyperlink ref="G30" tooltip="Supplier" display="'311-1.00HRDKR-ND"/>
-    <hyperlink ref="G31" tooltip="Supplier" display="'"/>
-    <hyperlink ref="G32" tooltip="Supplier" display="'ZLLS400TADKR-ND"/>
-    <hyperlink ref="G33" tooltip="Supplier" display="'36-5019DKR-ND, 36-5019DKR-ND, 36-5019CT-ND, 36-5019CT-ND, 36-5019CT-ND, 36-5019DKR-ND, 36-5019DKR-ND, 36-5019DKR-ND, 36-5019CT-ND, 36-5019DKR-ND, 36-5019CT-ND"/>
-    <hyperlink ref="G34" tooltip="Supplier" display="'1613-1369-ND"/>
-    <hyperlink ref="G35" tooltip="Supplier" display="'336-3941-ND"/>
-    <hyperlink ref="G36" tooltip="Supplier" display="'SST25VF010A-33-4C-SAE-ND"/>
-    <hyperlink ref="G37" tooltip="Supplier" display="'MAX9814ETD+TDKR-ND"/>
-    <hyperlink ref="G38" tooltip="Supplier" display="'102-1721-ND"/>
-    <hyperlink ref="G39" tooltip="Supplier" display="'255-1818-ND"/>
-    <hyperlink ref="G40" tooltip="Supplier" display="'LTC3106EUDC#PBF-ND"/>
-    <hyperlink ref="G41" tooltip="Supplier" display="'"/>
-    <hyperlink ref="G42" tooltip="Supplier" display="'336-4136-1-ND"/>
-    <hyperlink ref="G43" tooltip="Supplier" display="'LT1300CS8#PBF-ND"/>
-    <hyperlink ref="G44" tooltip="Supplier" display="'"/>
-    <hyperlink ref="G45" tooltip="Supplier" display="'535-11000-1-ND"/>
-    <hyperlink ref="G46" tooltip="Supplier" display="'520-ECS-327-12.5-34B"/>
+    <hyperlink ref="G2" tooltip="Supplier" display="'1276-1948-1-ND, 1276-1948-6-ND, 1276-1948-6-ND"/>
+    <hyperlink ref="G3" tooltip="Supplier" display="'311-1085-1-ND, 311-1085-6-ND"/>
+    <hyperlink ref="G4" tooltip="Supplier" display="'311-1088-6-ND, 311-1088-6-ND, 311-1088-1-ND, 311-1088-1-ND, 311-1088-6-ND, 311-1088-6-ND"/>
+    <hyperlink ref="G5" tooltip="Supplier" display="'478-11180-2-ND"/>
+    <hyperlink ref="G6" tooltip="Supplier" display="'4437PHCT-ND"/>
+    <hyperlink ref="G7" tooltip="Supplier" display="'1276-1946-6-ND, 1276-1946-6-ND, 1276-1946-1-ND, 1276-1946-6-ND"/>
+    <hyperlink ref="G8" tooltip="Supplier" display="'311-1088-1-ND"/>
+    <hyperlink ref="G9" tooltip="Supplier" display="'399-7824-1-ND"/>
+    <hyperlink ref="G10" tooltip="Supplier" display="'490-3295-1-ND"/>
+    <hyperlink ref="G11" tooltip="Supplier" display="'587-2983-6-ND"/>
+    <hyperlink ref="G14" tooltip="Supplier" display="'732-1025-1-ND"/>
+    <hyperlink ref="G17" tooltip="Supplier" display="'311-0.0GRDKR-ND, 311-1.0KGRCT-ND"/>
+    <hyperlink ref="G18" tooltip="Supplier" display="'311-0.0GRDKR-ND, 732-4484-6-ND, 732-4484-6-ND, 311-0.0GRDKR-ND, 311-0.0GRDKR-ND"/>
+    <hyperlink ref="G21" tooltip="Supplier" display="'311-100KHRCT-ND"/>
+    <hyperlink ref="G22" tooltip="Supplier" display="'732-4484-1-ND"/>
+    <hyperlink ref="G23" tooltip="Supplier" display="'311-1.00MHRDKR-ND"/>
+    <hyperlink ref="G24" tooltip="Supplier" display="'311-1.00HRDKR-ND"/>
+    <hyperlink ref="G26" tooltip="Supplier" display="'ZLLS400TADKR-ND"/>
+    <hyperlink ref="G27" tooltip="Supplier" display="'36-5019DKR-ND, 36-5019DKR-ND, 36-5019CT-ND, 36-5019CT-ND, 36-5019CT-ND, 36-5019DKR-ND, 36-5019DKR-ND, 36-5019DKR-ND, 36-5019CT-ND, 36-5019DKR-ND, 36-5019CT-ND"/>
+    <hyperlink ref="G30" tooltip="Supplier" display="'SST25VF010A-33-4C-SAE-ND"/>
+    <hyperlink ref="G31" tooltip="Supplier" display="'MAX9814ETD+TDKR-ND"/>
+    <hyperlink ref="G32" tooltip="Supplier" display="'102-1721-ND"/>
+    <hyperlink ref="G33" tooltip="Supplier" display="'LTC3106EUDC#PBF-ND"/>
+    <hyperlink ref="G35" tooltip="Supplier" display="'336-4136-1-ND"/>
+    <hyperlink ref="G37" tooltip="Supplier" display="'535-11000-1-ND"/>
+    <hyperlink ref="G16" tooltip="Supplier" display="'732-5327-ND"/>
+    <hyperlink ref="G34" tooltip="Supplier" display="'LT1300CS8#PBF-ND"/>
+    <hyperlink ref="G20" tooltip="Supplier" display="'311-1088-1-ND"/>
+    <hyperlink ref="G13" tooltip="Supplier" display="'751-1174-6-ND"/>
+    <hyperlink ref="G29" tooltip="Supplier" display="'336-3941-ND"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
